--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,10 +52,13 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>excellent</t>
@@ -67,244 +70,238 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>rice</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>far</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>dish</t>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>make</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -665,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2713178294573643</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1243243243243243</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +881,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +907,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8622291021671826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +933,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +959,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1011,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7402597402597403</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7402597402597403</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,13 +1063,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6764705882352942</v>
+        <v>0.6875</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1092,13 +1089,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6610169491525424</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L14">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1118,13 +1115,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6813559322033899</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1144,13 +1141,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.637239165329053</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16">
-        <v>794</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>794</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>452</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1170,13 +1167,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6342857142857142</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1196,13 +1193,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.631578947368421</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1222,13 +1219,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1248,13 +1245,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>801</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>801</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1274,13 +1271,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1300,13 +1297,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1326,13 +1323,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.59375</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1352,13 +1349,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5918367346938775</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1378,13 +1375,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5897435897435898</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1404,13 +1401,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5694444444444444</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1430,13 +1427,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5641025641025641</v>
+        <v>0.59375</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1456,13 +1453,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5526315789473685</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1482,13 +1479,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5508982035928144</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1508,13 +1505,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1534,13 +1531,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5288461538461539</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1560,13 +1557,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5238095238095238</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1586,13 +1583,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4887218045112782</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L33">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1612,13 +1609,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4693877551020408</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1638,13 +1635,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4461538461538462</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1656,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1664,13 +1661,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4457831325301205</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1682,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1690,13 +1687,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4426229508196721</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1708,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1716,13 +1713,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4216867469879518</v>
+        <v>0.46</v>
       </c>
       <c r="L38">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M38">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1742,13 +1739,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4197530864197531</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1768,13 +1765,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4107142857142857</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1786,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1794,13 +1791,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1820,13 +1817,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3968253968253968</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1838,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1872,13 +1869,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3823529411764706</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1890,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1901,10 +1898,10 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1916,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1924,13 +1921,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3684210526315789</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1942,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1950,13 +1947,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3501945525291829</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L47">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1968,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>167</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1976,13 +1973,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3406862745098039</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L48">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="M48">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1994,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>269</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2002,13 +1999,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.3063063063063063</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2020,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2028,13 +2025,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2976190476190476</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2046,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2054,13 +2051,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2917808219178082</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L51">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2072,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>517</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2080,13 +2077,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2805755395683453</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2098,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2106,13 +2103,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2772277227722773</v>
+        <v>0.2958904109589041</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2124,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2132,13 +2129,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2680301399354144</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L54">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2150,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>680</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2158,13 +2155,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2631578947368421</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2176,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2184,13 +2181,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2612612612612613</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2210,13 +2207,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2592592592592592</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2228,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>80</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2236,13 +2233,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2571428571428571</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2254,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2262,13 +2259,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2450331125827815</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L59">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2280,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2288,13 +2285,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.219435736677116</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L60">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="M60">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2306,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>249</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2314,13 +2311,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.2110091743119266</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2332,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2340,13 +2337,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.2080536912751678</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2358,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2366,13 +2363,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.2013245033112583</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L63">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="M63">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2384,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>603</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2392,13 +2389,13 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1923076923076923</v>
+        <v>0.2020460358056266</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2410,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>105</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2418,13 +2415,13 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1841432225063939</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L65">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2436,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>638</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2444,13 +2441,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1585365853658537</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2470,13 +2467,13 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1554621848739496</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2488,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2496,13 +2493,13 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1517615176151761</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L68">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N68">
         <v>0.97</v>
@@ -2514,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>313</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2522,13 +2519,13 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.1515151515151515</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2540,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2548,13 +2545,13 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.145985401459854</v>
+        <v>0.1435523114355231</v>
       </c>
       <c r="L70">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M70">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2566,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2574,13 +2571,13 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.1355932203389831</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2592,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>153</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2600,13 +2597,13 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.1340909090909091</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L72">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2618,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>381</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2626,13 +2623,13 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.1291512915129151</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2644,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>236</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2652,13 +2649,13 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.116945107398568</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="L74">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M74">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2670,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2678,13 +2675,13 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.1168384879725086</v>
+        <v>0.125</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2696,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>257</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2704,13 +2701,13 @@
         <v>85</v>
       </c>
       <c r="K76">
-        <v>0.1162280701754386</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L76">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M76">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2722,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2730,13 +2727,13 @@
         <v>86</v>
       </c>
       <c r="K77">
-        <v>0.1148148148148148</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L77">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M77">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2748,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2756,13 +2753,13 @@
         <v>87</v>
       </c>
       <c r="K78">
-        <v>0.1057692307692308</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2774,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>186</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2782,25 +2779,25 @@
         <v>88</v>
       </c>
       <c r="K79">
-        <v>0.09612625538020086</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L79">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="N79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>630</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2808,13 +2805,13 @@
         <v>89</v>
       </c>
       <c r="K80">
-        <v>0.08870967741935484</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2826,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>226</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2834,25 +2831,25 @@
         <v>90</v>
       </c>
       <c r="K81">
-        <v>0.08469945355191257</v>
+        <v>0.07890961262553801</v>
       </c>
       <c r="L81">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M81">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>335</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2860,25 +2857,25 @@
         <v>91</v>
       </c>
       <c r="K82">
-        <v>0.08123249299719888</v>
+        <v>0.07390084190832553</v>
       </c>
       <c r="L82">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M82">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2886,13 +2883,13 @@
         <v>92</v>
       </c>
       <c r="K83">
-        <v>0.07360406091370558</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="L83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -2904,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2912,13 +2909,13 @@
         <v>93</v>
       </c>
       <c r="K84">
-        <v>0.05719557195571956</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L84">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M84">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -2930,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>511</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2938,25 +2935,25 @@
         <v>94</v>
       </c>
       <c r="K85">
-        <v>0.04606525911708254</v>
+        <v>0.04981549815498155</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -2964,51 +2961,25 @@
         <v>95</v>
       </c>
       <c r="K86">
-        <v>0.03812824956672443</v>
+        <v>0.04325259515570934</v>
       </c>
       <c r="L86">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M86">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N86">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O86">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K87">
-        <v>0.03014416775884666</v>
-      </c>
-      <c r="L87">
-        <v>23</v>
-      </c>
-      <c r="M87">
-        <v>27</v>
-      </c>
-      <c r="N87">
-        <v>0.85</v>
-      </c>
-      <c r="O87">
-        <v>0.15</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>740</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
